--- a/biology/Histoire de la zoologie et de la botanique/Charles_Robert_Senhouse_Pitman/Charles_Robert_Senhouse_Pitman.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Robert_Senhouse_Pitman/Charles_Robert_Senhouse_Pitman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Robert Senhouse Pitman est un naturaliste britannique, né le 19 mars 1890 à Bombay et mort le 22 septembre 1975 à Londres.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie à la Royal Military College de Sandhurst et en sort avec le grade de second lieutenant en 1909. Il sert en Inde jusqu’à la Première Guerre mondiale. Durant celle-ci, il est envoyé en Égypte, en France, en Mésopotamie et en Palestine. Il est décoré à plusieurs occasions notamment par l’ordre du Service distingué et de la Croix militaire.
 Pitman quitte l’armée en 1921 avec le rang de lieutenant-colonel et part s’installer dans une ferme au Kenya. De 1925 à 1950, il est garde chasse dans le protectorat de l’Ouganda, à l’exception des périodes 1931-1932 où il est garde chasse dans le nord de la Rhodésie (aujourd’hui la Zambie) et de 1941 à 1946 où il dirige les services secrets de l’Ouganda. Il est fait, en 1950, commandeur de l’Ordre de l'Empire britannique et se retire à Londres en 1951. Il y continue d’être actif dans les organisations scientifiques et de protection de l’environnement.
@@ -546,15 +560,88 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Liste partie des publications
-1931 : A Game Warden among his Charges (Nisbet &amp; Co., Londres, réimprimé en 1945 – nouvelle édition par Harmondsworth, New York en, 1943).
+          <t>Liste partie des publications</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1931 : A Game Warden among his Charges (Nisbet &amp; Co., Londres, réimprimé en 1945 – nouvelle édition par Harmondsworth, New York en, 1943).
 1938 : A Guide to the Snakes of Uganda (Kampala – réédité par Wheldon and Wesley en 1974).
 1945 : A Game Warden takes Stock (James Nisbet &amp; Co., Londres).
-1956 : Common Antelopes (Longmans, Green &amp; Co., Londres).
-Orientation bibliographique
-C.W. Benson (1976). Charles Robert Senhouse Pitman, Ibis, 118 (3) : 427-428.
-Source
-Kraig Adler (1989). Contributions to the History of Herpetology, Society for the study of amphibians and reptiles : 202 p.  (ISBN 0-916984-19-2)</t>
+1956 : Common Antelopes (Longmans, Green &amp; Co., Londres).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Charles_Robert_Senhouse_Pitman</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Robert_Senhouse_Pitman</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Annexe</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Orientation bibliographique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>C.W. Benson (1976). Charles Robert Senhouse Pitman, Ibis, 118 (3) : 427-428.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Charles_Robert_Senhouse_Pitman</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Robert_Senhouse_Pitman</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Annexe</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Kraig Adler (1989). Contributions to the History of Herpetology, Society for the study of amphibians and reptiles : 202 p.  (ISBN 0-916984-19-2)</t>
         </is>
       </c>
     </row>
